--- a/testData/WebForm/TC007_WF_RRUserY_OneConditionN_Test.xlsx
+++ b/testData/WebForm/TC007_WF_RRUserY_OneConditionN_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="84">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -243,27 +243,12 @@
     <t>0</t>
   </si>
   <si>
-    <t>9840010567</t>
-  </si>
-  <si>
-    <t>9840090889</t>
-  </si>
-  <si>
-    <t>9840084956</t>
-  </si>
-  <si>
-    <t>9840009917</t>
-  </si>
-  <si>
     <t>WebFormId</t>
   </si>
   <si>
     <t>9840076579</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
@@ -273,16 +258,10 @@
     <t>9840085902</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>2024-06-29 13:01:53</t>
   </si>
   <si>
     <t>9840088009</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>2024-06-29 13:02:17</t>
@@ -298,7 +277,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -640,90 +618,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="19" max="19" customWidth="true" width="10.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" customWidth="true" width="10.54296875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="25" max="25" customWidth="true" width="10.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="33" customWidth="true" width="9.6328125"/>
-    <col min="34" max="35" customWidth="true" width="15.26953125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="37" max="37" customWidth="true" width="17.81640625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="12.90625"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="41" max="42" customWidth="true" width="15.26953125"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="44" max="44" customWidth="true" width="11.453125"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.54296875" customWidth="1"/>
+    <col min="20" max="20" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.54296875" customWidth="1"/>
+    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.54296875" customWidth="1"/>
+    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9.6328125" customWidth="1"/>
+    <col min="34" max="35" width="15.26953125" customWidth="1"/>
+    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.81640625" customWidth="1"/>
+    <col min="38" max="38" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="15.26953125" customWidth="1"/>
+    <col min="43" max="43" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.453125" customWidth="1"/>
+    <col min="45" max="45" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -732,100 +710,100 @@
       <c r="N1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s" s="0">
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" t="s" s="0">
+      <c r="R1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" t="s" s="0">
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" t="s" s="0">
+      <c r="T1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" t="s" s="0">
+      <c r="U1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" t="s" s="0">
+      <c r="V1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" t="s" s="0">
+      <c r="W1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" t="s" s="0">
+      <c r="X1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" t="s" s="0">
+      <c r="Y1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" t="s" s="0">
+      <c r="Z1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" t="s" s="0">
+      <c r="AA1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" t="s" s="0">
+      <c r="AB1" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" t="s" s="0">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" t="s" s="0">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" t="s" s="0">
+      <c r="AE1" t="s">
         <v>50</v>
       </c>
-      <c r="AF1" t="s" s="0">
+      <c r="AF1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" t="s" s="0">
+      <c r="AG1" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" t="s" s="0">
+      <c r="AH1" t="s">
         <v>59</v>
       </c>
-      <c r="AI1" t="s" s="0">
+      <c r="AI1" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" t="s" s="0">
+      <c r="AJ1" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" t="s" s="0">
+      <c r="AK1" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" t="s" s="0">
+      <c r="AL1" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" t="s" s="0">
+      <c r="AM1" t="s">
         <v>52</v>
       </c>
-      <c r="AN1" t="s" s="0">
+      <c r="AN1" t="s">
         <v>53</v>
       </c>
-      <c r="AO1" t="s" s="0">
+      <c r="AO1" t="s">
         <v>69</v>
       </c>
-      <c r="AP1" t="s" s="0">
+      <c r="AP1" t="s">
         <v>26</v>
       </c>
-      <c r="AQ1" t="s" s="0">
+      <c r="AQ1" t="s">
         <v>27</v>
       </c>
-      <c r="AR1" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="AS1" t="s" s="0">
+      <c r="AR1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS1" t="s">
         <v>60</v>
       </c>
-      <c r="AT1" t="s" s="0">
+      <c r="AT1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -839,31 +817,31 @@
       <c r="C2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>72</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>61</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="L2" t="s">
         <v>40</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -872,43 +850,43 @@
       <c r="N2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O2" t="s" s="0">
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s">
         <v>51</v>
       </c>
-      <c r="P2" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="Q2" t="s" s="0">
+      <c r="S2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" t="s" s="0">
+      <c r="U2" t="s">
         <v>51</v>
       </c>
-      <c r="S2" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="T2" t="s" s="0">
+      <c r="V2" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" t="s">
         <v>17</v>
       </c>
-      <c r="U2" t="s" s="0">
+      <c r="X2" t="s">
         <v>51</v>
       </c>
-      <c r="V2" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="W2" t="s" s="0">
+      <c r="Y2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z2" t="s">
         <v>17</v>
       </c>
-      <c r="X2" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="Y2" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="Z2" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="AA2" t="s" s="0">
+      <c r="AA2" t="s">
         <v>51</v>
       </c>
       <c r="AB2" s="4" t="s">
@@ -938,16 +916,16 @@
       <c r="AJ2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AK2" t="s" s="0">
+      <c r="AK2" t="s">
         <v>29</v>
       </c>
-      <c r="AL2" t="s" s="0">
+      <c r="AL2" t="s">
         <v>71</v>
       </c>
-      <c r="AM2" s="0">
+      <c r="AM2">
         <v>0</v>
       </c>
-      <c r="AN2" t="s" s="0">
+      <c r="AN2" t="s">
         <v>73</v>
       </c>
       <c r="AO2" s="4" t="s">
@@ -973,31 +951,31 @@
       <c r="C3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s" s="0">
-        <v>79</v>
+      <c r="F3" t="s">
+        <v>75</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s" s="0">
+      <c r="J3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s" s="0">
+      <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" t="s" s="0">
+      <c r="L3" t="s">
         <v>41</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -1006,14 +984,14 @@
       <c r="N3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O3" t="s" s="0">
+      <c r="O3" t="s">
         <v>17</v>
       </c>
-      <c r="AS3" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="AT3" t="s" s="0">
-        <v>82</v>
+      <c r="AS3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.35">
@@ -1026,31 +1004,31 @@
       <c r="C4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s" s="0">
-        <v>83</v>
+      <c r="F4" t="s">
+        <v>78</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s" s="0">
+      <c r="J4" t="s">
         <v>61</v>
       </c>
-      <c r="K4" t="s" s="0">
+      <c r="K4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" t="s" s="0">
+      <c r="L4" t="s">
         <v>40</v>
       </c>
       <c r="M4" s="4" t="s">
@@ -1059,14 +1037,14 @@
       <c r="N4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="O4" t="s" s="0">
+      <c r="O4" t="s">
         <v>17</v>
       </c>
-      <c r="AS4" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="AT4" t="s" s="0">
-        <v>85</v>
+      <c r="AS4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.35">
@@ -1079,7 +1057,7 @@
       <c r="C5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1088,19 +1066,19 @@
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" t="s" s="0">
+      <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="J5" t="s" s="0">
+      <c r="J5" t="s">
         <v>61</v>
       </c>
-      <c r="K5" t="s" s="0">
+      <c r="K5" t="s">
         <v>13</v>
       </c>
-      <c r="L5" t="s" s="0">
+      <c r="L5" t="s">
         <v>43</v>
       </c>
       <c r="M5" s="4" t="s">
@@ -1109,8 +1087,8 @@
       <c r="N5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O5" t="s" s="0">
-        <v>51</v>
+      <c r="O5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.35">
@@ -1123,7 +1101,7 @@
       <c r="C6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1132,19 +1110,19 @@
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s" s="0">
+      <c r="H6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" t="s" s="0">
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="J6" t="s" s="0">
+      <c r="J6" t="s">
         <v>61</v>
       </c>
-      <c r="K6" t="s" s="0">
+      <c r="K6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" t="s" s="0">
+      <c r="L6" t="s">
         <v>44</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1153,8 +1131,8 @@
       <c r="N6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="O6" t="s" s="0">
-        <v>51</v>
+      <c r="O6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.35">
@@ -1167,31 +1145,31 @@
       <c r="C7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s" s="0">
-        <v>86</v>
+      <c r="F7" t="s">
+        <v>80</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H7" t="s" s="0">
+      <c r="H7" t="s">
         <v>36</v>
       </c>
-      <c r="I7" t="s" s="0">
+      <c r="I7" t="s">
         <v>10</v>
       </c>
-      <c r="J7" t="s" s="0">
+      <c r="J7" t="s">
         <v>61</v>
       </c>
-      <c r="K7" t="s" s="0">
+      <c r="K7" t="s">
         <v>13</v>
       </c>
-      <c r="L7" t="s" s="0">
+      <c r="L7" t="s">
         <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1200,14 +1178,14 @@
       <c r="N7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O7" t="s" s="0">
+      <c r="O7" t="s">
         <v>17</v>
       </c>
-      <c r="AS7" t="s" s="0">
+      <c r="AS7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT7" t="s">
         <v>81</v>
-      </c>
-      <c r="AT7" t="s" s="0">
-        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.35">
@@ -1220,7 +1198,7 @@
       <c r="C8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1229,19 +1207,19 @@
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s" s="0">
+      <c r="H8" t="s">
         <v>37</v>
       </c>
-      <c r="I8" t="s" s="0">
+      <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" t="s" s="0">
+      <c r="J8" t="s">
         <v>61</v>
       </c>
-      <c r="K8" t="s" s="0">
+      <c r="K8" t="s">
         <v>13</v>
       </c>
-      <c r="L8" t="s" s="0">
+      <c r="L8" t="s">
         <v>41</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -1250,8 +1228,8 @@
       <c r="N8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O8" t="s" s="0">
-        <v>51</v>
+      <c r="O8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.35">
@@ -1264,31 +1242,31 @@
       <c r="C9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s" s="0">
-        <v>89</v>
+      <c r="F9" t="s">
+        <v>82</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s" s="0">
+      <c r="H9" t="s">
         <v>38</v>
       </c>
-      <c r="I9" t="s" s="0">
+      <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="J9" t="s" s="0">
+      <c r="J9" t="s">
         <v>61</v>
       </c>
-      <c r="K9" t="s" s="0">
+      <c r="K9" t="s">
         <v>13</v>
       </c>
-      <c r="L9" t="s" s="0">
+      <c r="L9" t="s">
         <v>42</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -1297,14 +1275,14 @@
       <c r="N9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="O9" t="s" s="0">
+      <c r="O9" t="s">
         <v>17</v>
       </c>
-      <c r="AS9" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="AT9" t="s" s="0">
-        <v>90</v>
+      <c r="AS9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.35">
@@ -1317,7 +1295,7 @@
       <c r="C10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1326,19 +1304,19 @@
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s" s="0">
+      <c r="H10" t="s">
         <v>39</v>
       </c>
-      <c r="I10" t="s" s="0">
+      <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" t="s" s="0">
+      <c r="J10" t="s">
         <v>61</v>
       </c>
-      <c r="K10" t="s" s="0">
+      <c r="K10" t="s">
         <v>13</v>
       </c>
-      <c r="L10" t="s" s="0">
+      <c r="L10" t="s">
         <v>40</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -1347,8 +1325,8 @@
       <c r="N10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O10" t="s" s="0">
-        <v>51</v>
+      <c r="O10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC007_WF_RRUserY_OneConditionN_Test.xlsx
+++ b/testData/WebForm/TC007_WF_RRUserY_OneConditionN_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="105">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -271,12 +271,76 @@
   </si>
   <si>
     <t>2024-06-29 13:02:41</t>
+  </si>
+  <si>
+    <t>9840068077</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:19:32</t>
+  </si>
+  <si>
+    <t>9840079147</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:19:54</t>
+  </si>
+  <si>
+    <t>9840098148</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:20:17</t>
+  </si>
+  <si>
+    <t>9840040060</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:20:41</t>
+  </si>
+  <si>
+    <t>9840032517</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:21:03</t>
+  </si>
+  <si>
+    <t>9840090004</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:21:25</t>
+  </si>
+  <si>
+    <t>9840014788</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:21:47</t>
+  </si>
+  <si>
+    <t>9840052038</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:22:12</t>
+  </si>
+  <si>
+    <t>9840016065</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:22:33</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -624,84 +688,84 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.54296875" customWidth="1"/>
-    <col min="20" max="20" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.54296875" customWidth="1"/>
-    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.54296875" customWidth="1"/>
-    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.6328125" customWidth="1"/>
-    <col min="34" max="35" width="15.26953125" customWidth="1"/>
-    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.81640625" customWidth="1"/>
-    <col min="38" max="38" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="15.26953125" customWidth="1"/>
-    <col min="43" max="43" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.453125" customWidth="1"/>
-    <col min="45" max="45" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.453125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="19" max="19" customWidth="true" width="10.54296875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="22" max="22" customWidth="true" width="10.54296875"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="25" max="25" customWidth="true" width="10.54296875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="32" max="33" customWidth="true" width="9.6328125"/>
+    <col min="34" max="35" customWidth="true" width="15.26953125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="37" max="37" customWidth="true" width="17.81640625"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="12.90625"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="15.26953125"/>
+    <col min="41" max="42" customWidth="true" width="15.26953125"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="44" max="44" customWidth="true" width="11.453125"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="11.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>6</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -710,100 +774,100 @@
       <c r="N1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" t="s" s="0">
         <v>19</v>
       </c>
     </row>
@@ -817,31 +881,31 @@
       <c r="C2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>72</v>
+      <c r="F2" t="s" s="0">
+        <v>84</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -850,43 +914,43 @@
       <c r="N2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" t="s" s="0">
         <v>51</v>
       </c>
       <c r="AB2" s="4" t="s">
@@ -916,17 +980,17 @@
       <c r="AJ2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AL2" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" s="0">
         <v>0</v>
       </c>
-      <c r="AN2" t="s">
-        <v>73</v>
+      <c r="AN2" t="s" s="0">
+        <v>85</v>
       </c>
       <c r="AO2" s="4" t="s">
         <v>70</v>
@@ -939,6 +1003,12 @@
       </c>
       <c r="AR2" s="4">
         <v>137</v>
+      </c>
+      <c r="AS2" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="AT2" t="s" s="0">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.35">
@@ -951,31 +1021,31 @@
       <c r="C3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>75</v>
+      <c r="F3" t="s" s="0">
+        <v>87</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" t="s" s="0">
         <v>41</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -984,14 +1054,14 @@
       <c r="N3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AS3" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="AT3" t="s">
-        <v>77</v>
+      <c r="AT3" t="s" s="0">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.35">
@@ -1004,31 +1074,31 @@
       <c r="C4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>78</v>
+      <c r="F4" t="s" s="0">
+        <v>90</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M4" s="4" t="s">
@@ -1037,14 +1107,14 @@
       <c r="N4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AS4" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="AT4" t="s">
-        <v>79</v>
+      <c r="AT4" t="s" s="0">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.35">
@@ -1057,28 +1127,31 @@
       <c r="C5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F5" t="s" s="0">
+        <v>93</v>
+      </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" t="s" s="0">
         <v>43</v>
       </c>
       <c r="M5" s="4" t="s">
@@ -1087,8 +1160,14 @@
       <c r="N5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" t="s" s="0">
         <v>17</v>
+      </c>
+      <c r="AS5" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="AT5" t="s" s="0">
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.35">
@@ -1101,28 +1180,31 @@
       <c r="C6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F6" t="s" s="0">
+        <v>95</v>
+      </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" t="s" s="0">
         <v>44</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1131,8 +1213,14 @@
       <c r="N6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" t="s" s="0">
         <v>17</v>
+      </c>
+      <c r="AS6" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="AT6" t="s" s="0">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.35">
@@ -1145,31 +1233,31 @@
       <c r="C7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
-        <v>80</v>
+      <c r="F7" t="s" s="0">
+        <v>97</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1178,14 +1266,14 @@
       <c r="N7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AS7" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="AT7" t="s">
-        <v>81</v>
+      <c r="AT7" t="s" s="0">
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.35">
@@ -1198,28 +1286,31 @@
       <c r="C8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F8" t="s" s="0">
+        <v>99</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" t="s" s="0">
         <v>41</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -1228,8 +1319,14 @@
       <c r="N8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" t="s" s="0">
         <v>17</v>
+      </c>
+      <c r="AS8" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="AT8" t="s" s="0">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.35">
@@ -1242,31 +1339,31 @@
       <c r="C9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
-        <v>82</v>
+      <c r="F9" t="s" s="0">
+        <v>101</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" t="s" s="0">
         <v>42</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -1275,14 +1372,14 @@
       <c r="N9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AS9" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="AT9" t="s">
-        <v>83</v>
+      <c r="AT9" t="s" s="0">
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.35">
@@ -1295,28 +1392,31 @@
       <c r="C10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F10" t="s" s="0">
+        <v>103</v>
+      </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -1325,8 +1425,14 @@
       <c r="N10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" t="s" s="0">
         <v>17</v>
+      </c>
+      <c r="AS10" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="AT10" t="s" s="0">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC007_WF_RRUserY_OneConditionN_Test.xlsx
+++ b/testData/WebForm/TC007_WF_RRUserY_OneConditionN_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="123">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -334,6 +334,60 @@
   </si>
   <si>
     <t>2024-07-04 13:22:33</t>
+  </si>
+  <si>
+    <t>9840045095</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:53:52</t>
+  </si>
+  <si>
+    <t>9840050254</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:54:22</t>
+  </si>
+  <si>
+    <t>9840033074</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:54:50</t>
+  </si>
+  <si>
+    <t>9840066223</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:55:19</t>
+  </si>
+  <si>
+    <t>9840009375</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:55:48</t>
+  </si>
+  <si>
+    <t>9840011557</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:56:18</t>
+  </si>
+  <si>
+    <t>9840025571</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:56:47</t>
+  </si>
+  <si>
+    <t>9840085774</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:57:16</t>
+  </si>
+  <si>
+    <t>9840074831</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:57:45</t>
   </si>
 </sst>
 </file>
@@ -888,7 +942,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -990,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="AN2" t="s" s="0">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO2" s="4" t="s">
         <v>70</v>
@@ -1008,7 +1062,7 @@
         <v>76</v>
       </c>
       <c r="AT2" t="s" s="0">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.35">
@@ -1028,7 +1082,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1061,7 +1115,7 @@
         <v>76</v>
       </c>
       <c r="AT3" t="s" s="0">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.35">
@@ -1081,7 +1135,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1114,7 +1168,7 @@
         <v>76</v>
       </c>
       <c r="AT4" t="s" s="0">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.35">
@@ -1134,7 +1188,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1167,7 +1221,7 @@
         <v>76</v>
       </c>
       <c r="AT5" t="s" s="0">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.35">
@@ -1187,7 +1241,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1220,7 +1274,7 @@
         <v>76</v>
       </c>
       <c r="AT6" t="s" s="0">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.35">
@@ -1240,7 +1294,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1273,7 +1327,7 @@
         <v>76</v>
       </c>
       <c r="AT7" t="s" s="0">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.35">
@@ -1293,7 +1347,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1326,7 +1380,7 @@
         <v>76</v>
       </c>
       <c r="AT8" t="s" s="0">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.35">
@@ -1346,7 +1400,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1379,7 +1433,7 @@
         <v>76</v>
       </c>
       <c r="AT9" t="s" s="0">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.35">
@@ -1399,7 +1453,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1432,7 +1486,7 @@
         <v>76</v>
       </c>
       <c r="AT10" t="s" s="0">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC007_WF_RRUserY_OneConditionN_Test.xlsx
+++ b/testData/WebForm/TC007_WF_RRUserY_OneConditionN_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="104">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -237,157 +237,100 @@
     <t>WF_RRUserY_OneConditionN</t>
   </si>
   <si>
-    <t>9840070975</t>
+    <t>WebFormId</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9840045095</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:53:52</t>
+  </si>
+  <si>
+    <t>9840050254</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:54:22</t>
+  </si>
+  <si>
+    <t>9840033074</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:54:50</t>
+  </si>
+  <si>
+    <t>9840066223</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:55:19</t>
+  </si>
+  <si>
+    <t>9840009375</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:55:48</t>
+  </si>
+  <si>
+    <t>9840011557</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:56:18</t>
+  </si>
+  <si>
+    <t>9840025571</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:56:47</t>
+  </si>
+  <si>
+    <t>9840085774</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:57:16</t>
+  </si>
+  <si>
+    <t>9840074831</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:57:45</t>
+  </si>
+  <si>
+    <t>9840010586</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2024-12-30 15:36:56</t>
+  </si>
+  <si>
+    <t>9840050587</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>WebFormId</t>
-  </si>
-  <si>
-    <t>9840076579</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>2024-06-29 13:01:29</t>
-  </si>
-  <si>
-    <t>9840085902</t>
-  </si>
-  <si>
-    <t>2024-06-29 13:01:53</t>
-  </si>
-  <si>
-    <t>9840088009</t>
-  </si>
-  <si>
-    <t>2024-06-29 13:02:17</t>
-  </si>
-  <si>
-    <t>9840070003</t>
-  </si>
-  <si>
-    <t>2024-06-29 13:02:41</t>
-  </si>
-  <si>
-    <t>9840068077</t>
+    <t>2024-12-30 15:37:26</t>
+  </si>
+  <si>
+    <t>9840016137</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>2024-07-04 13:19:32</t>
-  </si>
-  <si>
-    <t>9840079147</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2024-07-04 13:19:54</t>
-  </si>
-  <si>
-    <t>9840098148</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2024-07-04 13:20:17</t>
-  </si>
-  <si>
-    <t>9840040060</t>
-  </si>
-  <si>
-    <t>2024-07-04 13:20:41</t>
-  </si>
-  <si>
-    <t>9840032517</t>
-  </si>
-  <si>
-    <t>2024-07-04 13:21:03</t>
-  </si>
-  <si>
-    <t>9840090004</t>
-  </si>
-  <si>
-    <t>2024-07-04 13:21:25</t>
-  </si>
-  <si>
-    <t>9840014788</t>
-  </si>
-  <si>
-    <t>2024-07-04 13:21:47</t>
-  </si>
-  <si>
-    <t>9840052038</t>
-  </si>
-  <si>
-    <t>2024-07-04 13:22:12</t>
-  </si>
-  <si>
-    <t>9840016065</t>
-  </si>
-  <si>
-    <t>2024-07-04 13:22:33</t>
-  </si>
-  <si>
-    <t>9840045095</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:53:52</t>
-  </si>
-  <si>
-    <t>9840050254</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:54:22</t>
-  </si>
-  <si>
-    <t>9840033074</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:54:50</t>
-  </si>
-  <si>
-    <t>9840066223</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:55:19</t>
-  </si>
-  <si>
-    <t>9840009375</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:55:48</t>
-  </si>
-  <si>
-    <t>9840011557</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:56:18</t>
-  </si>
-  <si>
-    <t>9840025571</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:56:47</t>
-  </si>
-  <si>
-    <t>9840085774</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:57:16</t>
-  </si>
-  <si>
-    <t>9840074831</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:57:45</t>
+    <t>2025-01-03 17:12:46</t>
+  </si>
+  <si>
+    <t>9840055008</t>
+  </si>
+  <si>
+    <t>2025-01-03 17:13:17</t>
   </si>
 </sst>
 </file>
@@ -737,55 +680,55 @@
   <dimension ref="A1:AT10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O10"/>
+      <selection activeCell="O4" sqref="O4:O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.5703125"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="19" max="19" customWidth="true" width="10.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" customWidth="true" width="10.54296875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="25" max="25" customWidth="true" width="10.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="33" customWidth="true" width="9.6328125"/>
-    <col min="34" max="35" customWidth="true" width="15.26953125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="37" max="37" customWidth="true" width="17.81640625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="12.90625"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="41" max="42" customWidth="true" width="15.26953125"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="44" max="44" customWidth="true" width="11.453125"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="19" max="19" customWidth="true" width="10.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="22" max="22" customWidth="true" width="10.5703125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="25" max="25" customWidth="true" width="10.5703125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="32" max="33" customWidth="true" width="9.5703125"/>
+    <col min="34" max="35" customWidth="true" width="15.28515625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="37" max="37" customWidth="true" width="17.85546875"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="27.42578125"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="12.85546875"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="15.28515625"/>
+    <col min="41" max="42" customWidth="true" width="15.28515625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="44" max="44" customWidth="true" width="11.42578125"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="11.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -916,7 +859,7 @@
         <v>27</v>
       </c>
       <c r="AR1" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AS1" t="s" s="0">
         <v>60</v>
@@ -925,7 +868,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -942,7 +885,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1044,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="AN2" t="s" s="0">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="AO2" s="4" t="s">
         <v>70</v>
@@ -1059,13 +1002,13 @@
         <v>137</v>
       </c>
       <c r="AS2" t="s" s="0">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AT2" t="s" s="0">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1082,7 +1025,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1112,13 +1055,13 @@
         <v>17</v>
       </c>
       <c r="AS3" t="s" s="0">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AT3" t="s" s="0">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1135,7 +1078,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1162,16 +1105,16 @@
         <v>55</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="s" s="0">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AT4" t="s" s="0">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1188,7 +1131,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1215,16 +1158,16 @@
         <v>56</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="s" s="0">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AT5" t="s" s="0">
-        <v>112</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1241,7 +1184,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1268,16 +1211,16 @@
         <v>57</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="s" s="0">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AT6" t="s" s="0">
-        <v>114</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1294,7 +1237,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1321,16 +1264,16 @@
         <v>48</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="s" s="0">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AT7" t="s" s="0">
-        <v>116</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1347,7 +1290,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1374,16 +1317,16 @@
         <v>54</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="s" s="0">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AT8" t="s" s="0">
-        <v>118</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1400,7 +1343,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1427,16 +1370,16 @@
         <v>55</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AS9" t="s" s="0">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AT9" t="s" s="0">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1453,7 +1396,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1480,13 +1423,13 @@
         <v>56</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="s" s="0">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AT10" t="s" s="0">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
